--- a/Class Voucher Ids.xlsx
+++ b/Class Voucher Ids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VijayPerepa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64EB89BE-9923-4D21-B13E-FE84E8C5F83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C5D62B6-D8D6-4E0C-9634-09A2FD6F86D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{829D68A3-BE6F-4027-B8CD-426D784837F8}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
   <si>
     <t>Voucher Code</t>
   </si>
@@ -257,13 +257,127 @@
   </si>
   <si>
     <t>070D7194E02E43AC</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Carlo, Aaron antony</t>
+  </si>
+  <si>
+    <t>Sundara, Anand</t>
+  </si>
+  <si>
+    <t>Kp, Anupama</t>
+  </si>
+  <si>
+    <t>Sg, Ashwini</t>
+  </si>
+  <si>
+    <t>A, Bibi hajera</t>
+  </si>
+  <si>
+    <t>K, Jayanth kumar</t>
+  </si>
+  <si>
+    <t>K K, Jithin K.</t>
+  </si>
+  <si>
+    <t>Satyam, Kumar</t>
+  </si>
+  <si>
+    <t>Kumar, Kundan</t>
+  </si>
+  <si>
+    <t>Nagar, Mitesh S.</t>
+  </si>
+  <si>
+    <t>Devarinti, Naresh K.</t>
+  </si>
+  <si>
+    <t>Sakshi, Nibriti</t>
+  </si>
+  <si>
+    <t>Mahale, Omkar A.</t>
+  </si>
+  <si>
+    <t>M, Raghunath</t>
+  </si>
+  <si>
+    <t>Bhaskaran, Rahul</t>
+  </si>
+  <si>
+    <t>Tripathi, Rahul</t>
+  </si>
+  <si>
+    <t>Bodi, Ravindra</t>
+  </si>
+  <si>
+    <t>Gogri, Richa K</t>
+  </si>
+  <si>
+    <t>Khurana, Rohan</t>
+  </si>
+  <si>
+    <t>Sengupta, Sagnik</t>
+  </si>
+  <si>
+    <t>Dutta, Shrestha</t>
+  </si>
+  <si>
+    <t>Das, Shreyasi S.</t>
+  </si>
+  <si>
+    <t>R, Sreenivasan</t>
+  </si>
+  <si>
+    <t>Ahmad, Sufiyan</t>
+  </si>
+  <si>
+    <t>Kondadi voruganti, Surya</t>
+  </si>
+  <si>
+    <t>Jala, Vijay kumar S.</t>
+  </si>
+  <si>
+    <t>Shekhawat, Vikram S.</t>
+  </si>
+  <si>
+    <t>Kumar, Yakshith</t>
+  </si>
+  <si>
+    <t>Jayaram, Vijay B.</t>
+  </si>
+  <si>
+    <t>Nagaraj, Naveen</t>
+  </si>
+  <si>
+    <t>Ghosh, Ujjayani</t>
+  </si>
+  <si>
+    <t>Singh, Neha</t>
+  </si>
+  <si>
+    <t>Nandy, Sukarna</t>
+  </si>
+  <si>
+    <t>Gahoi, Nikita</t>
+  </si>
+  <si>
+    <t>Ghosh, Biswadeep</t>
+  </si>
+  <si>
+    <t>Jain, Shraman</t>
+  </si>
+  <si>
+    <t>Agarwal, Harshvardhan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,8 +512,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,8 +699,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -695,6 +821,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -740,9 +881,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1098,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9507EF8E-80A7-4C05-8C38-BBB9585AE44D}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G1" sqref="G1:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1112,9 +1256,10 @@
     <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1133,8 +1278,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1144,8 +1292,11 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1156,8 +1307,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1167,8 +1321,11 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1178,8 +1335,11 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1189,8 +1349,11 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1200,8 +1363,11 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1211,8 +1377,11 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1222,8 +1391,11 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1233,8 +1405,11 @@
       <c r="C10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1244,8 +1419,11 @@
       <c r="C11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1255,8 +1433,11 @@
       <c r="C12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1266,8 +1447,11 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1277,8 +1461,11 @@
       <c r="C14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1288,8 +1475,11 @@
       <c r="C15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1299,8 +1489,11 @@
       <c r="C16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G16" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1310,8 +1503,11 @@
       <c r="C17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G17" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1321,8 +1517,11 @@
       <c r="C18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G18" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1332,8 +1531,11 @@
       <c r="C19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G19" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1343,8 +1545,11 @@
       <c r="C20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G20" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1354,8 +1559,11 @@
       <c r="C21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G21" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1365,8 +1573,11 @@
       <c r="C22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G22" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1376,8 +1587,11 @@
       <c r="C23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G23" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1387,8 +1601,11 @@
       <c r="C24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G24" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1398,8 +1615,11 @@
       <c r="C25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G25" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1409,8 +1629,11 @@
       <c r="C26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G26" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1421,8 +1644,11 @@
         <v>58</v>
       </c>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G27" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -1432,8 +1658,11 @@
       <c r="C28" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G28" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1443,8 +1672,11 @@
       <c r="C29" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G29" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -1454,8 +1686,11 @@
       <c r="C30" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G30" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -1465,8 +1700,11 @@
       <c r="C31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G31" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1476,8 +1714,11 @@
       <c r="C32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G32" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -1487,8 +1728,11 @@
       <c r="C33" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G33" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -1498,8 +1742,11 @@
       <c r="C34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G34" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -1509,8 +1756,11 @@
       <c r="C35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G35" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -1520,8 +1770,11 @@
       <c r="C36" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G36" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -1530,6 +1783,14 @@
       </c>
       <c r="C37" t="s">
         <v>78</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
